--- a/react-redux-study.xlsx
+++ b/react-redux-study.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="16995" windowHeight="11145" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="16995" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
     <sheet name="redux" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="275">
   <si>
     <t>react</t>
     <phoneticPr fontId="1"/>
@@ -165,9 +165,6 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://qiita.com/hashrock/items/15f4a4961183cfbb2658</t>
   </si>
   <si>
     <t>package.jsonに書かれた依存はそのディレクトリにしかおけない？</t>
@@ -258,10 +255,6 @@
     <t>See system logs and 'systemctl status postgresql.service' for details</t>
   </si>
   <si>
-    <t>https://reactjs.org/docs/rendering-elements.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リアクト公式ドキュメント</t>
     <rPh sb="4" eb="6">
       <t>コウシキ</t>
@@ -269,10 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://webcache.googleusercontent.com/search?q=cache:Lh-BWhijCzgJ:zarari.hatenablog.com/entry/2016/04/11/212641+&amp;cd=7&amp;hl=ja&amp;ct=clnk&amp;gl=jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>reactのデバッグ方法は？</t>
     <rPh sb="10" eb="12">
       <t>ホウホウ</t>
@@ -302,10 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>127.0.0.1:3000/auth/sign_in</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　app</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -338,9 +323,6 @@
   <si>
     <t>about</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:3000/auth/sign_in</t>
   </si>
   <si>
     <t xml:space="preserve">           features</t>
@@ -1726,16 +1708,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最初にSTORE_HYDRATEが使われる</t>
-    <rPh sb="0" eb="2">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>何がわからない?</t>
     <rPh sb="0" eb="1">
       <t>ナニ</t>
@@ -1761,19 +1733,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>withMutationsとか使っているので、確かに使っているみたい</t>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>タシ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>convertStateとかrowStateとかしてるけどよくわからない</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1885,23 +1844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数の渡しかた不明、Immutable.JSについて</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしてみる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://qiita.com/canacel/items/ae6285bc12f4a2d30128</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1970,12 +1912,617 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://theboss.github.io/blog/2018/01/21/mastodon-memo/</t>
-  </si>
-  <si>
     <t>このサイトが参考になりそう</t>
     <rPh sb="6" eb="8">
       <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://webcache.googleusercontent.com/search?q=cache:Lh-BWhijCzgJ:zarari.hatenablog.com/entry/2016/04/11/212641+&amp;cd=7&amp;hl=ja&amp;ct=clnk&amp;gl=jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://reactjs.org/docs/rendering-elements.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://127.0.0.1:3000/auth/sign_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://qiita.com/hashrock/items/15f4a4961183cfbb2658</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://liginc.co.jp/352720</t>
+  </si>
+  <si>
+    <t>React Redux テスト考察</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/Takepepe/items/00af6d6cd3318fbe2aab</t>
+  </si>
+  <si>
+    <t>ときどき聞くredux-sagaとは</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reduxで副作用を扱うためのミドルウェア(副作用！)</t>
+    <rPh sb="6" eb="9">
+      <t>フクサヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>フクサヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webpackに設定がある？ → webpackはモジュールのバンドラー</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npmとはNod.jsのパッケージを管理するツール</t>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm list で今いるdirectoryにinstallされてるパッケージを表示</t>
+    <rPh sb="10" eb="11">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">karma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jsdom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enzyme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mocha + chai</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(太字はmastodonで使われている)</t>
+    <rPh sb="1" eb="3">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mastodonではつかっているか？  -&gt;つかっていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enzyme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsdom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>react-test-renderer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能追加のしかた</t>
+    <rPh sb="0" eb="4">
+      <t>キノウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初にこのページのこのコンポーネントを追加したい、その方法は？</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例）最初に`STORE_HYDRATE`が使われる(redux-devtoolsを使ってこの変数が使われていることがわかる -&gt; git grep)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>あちこちで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>withMutations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とか使っているので、確かに使っているみたい</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数の渡しかた不明、Immutable.JSについて使われ方を見る。(modelは使っていない)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分そのページの既存コンポーネントを見つけて、その隣に配置するかんじ</t>
+    <rPh sb="0" eb="2">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://blog.theboss.tech/2017/12/17/introduction-to-mastodon-frontend-customization/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v components/status_action_bar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューへの項目追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> render(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の中から追加していく</t>
+    <rPh sb="1" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intlって？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.propsの中身</t>
+    <rPh sb="11" eb="13">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際、propTypesでvalidationしている。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52: intl: PropTypes.object.isRequired,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/numanomanu/items/af97312f34cf1388cee6</t>
+  </si>
+  <si>
+    <t>enzymeについて言及している</t>
+    <rPh sb="10" eb="12">
+      <t>ゲンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の情報では、propsは親componentから渡された情報</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stateは自身のcomponentの中でもってる状態</t>
+    <rPh sb="6" eb="8">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値を指定するタイミング</t>
+  </si>
+  <si>
+    <t>値の変更可否</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>コンポーネント作成時</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>コンポーネント作成後</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>components/status.js（親）を見る</t>
+    <rPh sb="21" eb="22">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;StatusActionBar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> status={status} account={account} {...other}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>props</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は親から渡される？</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが　props</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合accountがそれ？</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formatMessageもなにかよくわからない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>snippet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記述順序も大切？</t>
+    <rPh sb="0" eb="2">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方がわからない</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rubyの場合は？</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常は空白の後にスニペット名が記入された時のみ展開出来る様になる　そうだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補完出てこない</t>
+    <rPh sb="0" eb="3">
+      <t>ホカンデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろいろ見たが、不明</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neocomplete.vimが前提だというので、入れてみた。</t>
+    <rPh sb="16" eb="18">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動かず。</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/silicsmz/items/b5ad3295863bb2b1de76</t>
+  </si>
+  <si>
+    <t>neocomplete.vimのDocをよく見よう by Shougo</t>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vim build with the |if_lua| feature</t>
+  </si>
+  <si>
+    <t>vim --version</t>
+  </si>
+  <si>
+    <t>でluaが使えるかわかる</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luaが使えること。。</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1984,7 +2531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,8 +2695,38 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2186,8 +2763,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2290,6 +2873,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2299,95 +2897,131 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3558,13 +4192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC224"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+    <sheetView tabSelected="1" topLeftCell="K178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M203" sqref="M203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="60.375" customWidth="1"/>
+    <col min="1" max="1" width="60.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="2.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="6" customWidth="1"/>
@@ -3574,11 +4208,17 @@
     <col min="8" max="8" width="2.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="2.75" style="5" customWidth="1"/>
     <col min="10" max="10" width="2.75" style="6" customWidth="1"/>
-    <col min="14" max="14" width="39.5" customWidth="1"/>
+    <col min="11" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="39.5" style="3" customWidth="1"/>
+    <col min="15" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="18.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="23.125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" s="4" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
@@ -3587,28 +4227,28 @@
       <c r="G3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
@@ -3617,28 +4257,28 @@
       <c r="G4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" s="4" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5"/>
@@ -3647,28 +4287,28 @@
       <c r="G5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-    </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
@@ -3677,28 +4317,28 @@
       <c r="G6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
@@ -3707,28 +4347,28 @@
       <c r="G7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-    </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" s="4" customFormat="1">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5"/>
@@ -3737,28 +4377,28 @@
       <c r="G8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-    </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" s="4" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5"/>
@@ -3767,27 +4407,27 @@
       <c r="G9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-    </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" s="4" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -3797,28 +4437,28 @@
       <c r="G10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-    </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="12" spans="1:29" s="4" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
@@ -3827,28 +4467,28 @@
       <c r="G12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-    </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" s="4" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5"/>
@@ -3857,28 +4497,28 @@
       <c r="G13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-    </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="15" spans="1:29" s="4" customFormat="1">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
@@ -3887,28 +4527,28 @@
       <c r="G15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-    </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="17" spans="1:29" s="4" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -3917,29 +4557,29 @@
       <c r="G17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-    </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>177</v>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" s="4" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -3947,28 +4587,28 @@
       <c r="G18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-    </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="21" spans="1:29" s="6" customFormat="1" ht="54">
+      <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4"/>
@@ -3977,28 +4617,28 @@
       <c r="F21" s="5"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-    </row>
-    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" s="6" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4"/>
@@ -4007,28 +4647,28 @@
       <c r="F22" s="5"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-    </row>
-    <row r="24" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="24" spans="1:29" s="6" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="4"/>
@@ -4037,28 +4677,28 @@
       <c r="F24" s="5"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-    </row>
-    <row r="27" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="27" spans="1:29" s="6" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4"/>
@@ -4067,28 +4707,28 @@
       <c r="F27" s="5"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-    </row>
-    <row r="30" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="30" spans="1:29" s="6" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="4"/>
@@ -4097,28 +4737,28 @@
       <c r="F30" s="5"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-    </row>
-    <row r="31" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" s="6" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="4"/>
@@ -4127,28 +4767,28 @@
       <c r="F31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-    </row>
-    <row r="32" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" s="6" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4"/>
@@ -4157,28 +4797,28 @@
       <c r="F32" s="5"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-    </row>
-    <row r="33" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" s="6" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="4"/>
@@ -4187,28 +4827,28 @@
       <c r="F33" s="5"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-    </row>
-    <row r="39" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="39" spans="1:29" s="6" customFormat="1">
+      <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="4"/>
@@ -4219,223 +4859,220 @@
       <c r="F39" s="5"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-    </row>
-    <row r="40" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="1:29" s="6" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="5" t="s">
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="44" spans="1:29">
+      <c r="A44" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="45" spans="1:29">
+      <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="M46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="M47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="M47" s="13" t="s">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:29" ht="14.25" thickBot="1">
+      <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="M48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C49" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="14" t="s">
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>36</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="C53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C53" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:12">
       <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C56" s="15" t="s">
+    <row r="56" spans="1:12">
+      <c r="C56" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="62" spans="1:12">
+      <c r="A62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="66" spans="1:29">
+      <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>178</v>
-      </c>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+    <row r="67" spans="1:29">
+      <c r="A67" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="L67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L65" t="s">
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="L68" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="69" spans="1:29">
+      <c r="A69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L69" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="70" spans="1:29">
+      <c r="L70" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L68" t="s">
+    </row>
+    <row r="73" spans="1:29" s="6" customFormat="1">
+      <c r="A73" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="L70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>56</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -4443,29 +5080,29 @@
       <c r="F73" s="5"/>
       <c r="H73" s="4"/>
       <c r="I73" s="5"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-    </row>
-    <row r="74" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>57</v>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+    </row>
+    <row r="74" spans="1:29" s="6" customFormat="1">
+      <c r="A74" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -4473,29 +5110,29 @@
       <c r="F74" s="5"/>
       <c r="H74" s="4"/>
       <c r="I74" s="5"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-    </row>
-    <row r="75" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>58</v>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+    </row>
+    <row r="75" spans="1:29" s="6" customFormat="1">
+      <c r="A75" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -4503,29 +5140,29 @@
       <c r="F75" s="5"/>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75"/>
-    </row>
-    <row r="76" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>59</v>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+    </row>
+    <row r="76" spans="1:29" s="6" customFormat="1">
+      <c r="A76" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -4533,29 +5170,29 @@
       <c r="F76" s="5"/>
       <c r="H76" s="4"/>
       <c r="I76" s="5"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-    </row>
-    <row r="77" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>60</v>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+    </row>
+    <row r="77" spans="1:29" s="6" customFormat="1">
+      <c r="A77" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -4563,29 +5200,29 @@
       <c r="F77" s="5"/>
       <c r="H77" s="4"/>
       <c r="I77" s="5"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-    </row>
-    <row r="78" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>61</v>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+    </row>
+    <row r="78" spans="1:29" s="6" customFormat="1">
+      <c r="A78" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -4593,29 +5230,29 @@
       <c r="F78" s="5"/>
       <c r="H78" s="4"/>
       <c r="I78" s="5"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-    </row>
-    <row r="80" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>62</v>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+    </row>
+    <row r="80" spans="1:29" s="6" customFormat="1">
+      <c r="A80" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -4623,29 +5260,29 @@
       <c r="F80" s="5"/>
       <c r="H80" s="4"/>
       <c r="I80" s="5"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-    </row>
-    <row r="81" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>63</v>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+    </row>
+    <row r="81" spans="1:29" s="6" customFormat="1">
+      <c r="A81" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -4653,29 +5290,29 @@
       <c r="F81" s="5"/>
       <c r="H81" s="4"/>
       <c r="I81" s="5"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81"/>
-    </row>
-    <row r="83" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>64</v>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+    </row>
+    <row r="83" spans="1:29" s="6" customFormat="1">
+      <c r="A83" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -4683,29 +5320,29 @@
       <c r="F83" s="5"/>
       <c r="H83" s="4"/>
       <c r="I83" s="5"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-    </row>
-    <row r="84" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>65</v>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+    </row>
+    <row r="84" spans="1:29" s="6" customFormat="1">
+      <c r="A84" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -4713,29 +5350,29 @@
       <c r="F84" s="5"/>
       <c r="H84" s="4"/>
       <c r="I84" s="5"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-      <c r="AB84"/>
-      <c r="AC84"/>
-    </row>
-    <row r="85" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>66</v>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+    </row>
+    <row r="85" spans="1:29" s="6" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -4743,748 +5380,779 @@
       <c r="F85" s="5"/>
       <c r="H85" s="4"/>
       <c r="I85" s="5"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
-    </row>
-    <row r="87" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+    </row>
+    <row r="87" spans="1:29" s="6" customFormat="1">
+      <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AC87"/>
-    </row>
-    <row r="88" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+    </row>
+    <row r="88" spans="1:29" s="6" customFormat="1">
+      <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C88" s="5"/>
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="H88" s="4"/>
       <c r="I88" s="5"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-      <c r="AB88"/>
-      <c r="AC88"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="K89" t="s">
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="K89" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="K90" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="L91" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="L92" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="K94" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="L95" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="K90" t="s">
+    <row r="102" spans="11:18">
+      <c r="K102" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="L91" t="s">
+    <row r="103" spans="11:18">
+      <c r="L103" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="L92" t="s">
+    <row r="104" spans="11:18">
+      <c r="M104" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="K94" t="s">
+    <row r="105" spans="11:18" ht="53.25" customHeight="1">
+      <c r="M105" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="L95" t="s">
+      <c r="N105" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="102" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="K102" t="s">
+      <c r="O105" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="L103" t="s">
+    <row r="106" spans="11:18">
+      <c r="P106" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="M104" t="s">
+    <row r="107" spans="11:18" ht="17.25">
+      <c r="Q107" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="11:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M105" t="s">
+    <row r="108" spans="11:18">
+      <c r="Q108" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N105" s="11" t="s">
+    </row>
+    <row r="109" spans="11:18">
+      <c r="R109" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O105" t="s">
+    </row>
+    <row r="110" spans="11:18">
+      <c r="R110" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="P106" t="s">
+    <row r="111" spans="11:18">
+      <c r="Q111" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="11:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="Q107" t="s">
+    <row r="114" spans="11:16">
+      <c r="K114" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="108" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="Q108" t="s">
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+    </row>
+    <row r="115" spans="11:16">
+      <c r="K115" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L115" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="109" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="R109" t="s">
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+    </row>
+    <row r="116" spans="11:16">
+      <c r="K116" s="13"/>
+      <c r="L116" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="110" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="R110" t="s">
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+    </row>
+    <row r="118" spans="11:16">
+      <c r="K118" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="11:18" x14ac:dyDescent="0.15">
-      <c r="Q111" t="s">
+    <row r="119" spans="11:16">
+      <c r="K119" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L119" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K114" s="16" t="s">
+    <row r="124" spans="11:16">
+      <c r="K124" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-    </row>
-    <row r="115" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K115" s="17" t="s">
+    </row>
+    <row r="125" spans="11:16">
+      <c r="L125" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="11:16">
+      <c r="L127" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="11:16">
+      <c r="M128" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="11:22">
+      <c r="N129" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="11:22">
+      <c r="M130" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="11:22">
+      <c r="N131" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="11:22">
+      <c r="N132" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="11:22">
+      <c r="N133" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="11:22">
+      <c r="L134" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N134" s="16"/>
+    </row>
+    <row r="135" spans="11:22">
+      <c r="M135" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="11:22" ht="15">
+      <c r="M136" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="11:22">
+      <c r="N137" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="11:22">
+      <c r="K138" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="11:22">
+      <c r="M139" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="11:22">
+      <c r="M140" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N140" s="18"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+      <c r="U140" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="11:22">
+      <c r="M141" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="U141" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="11:22">
+      <c r="M142" s="18"/>
+      <c r="N142" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+      <c r="U142" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="11:22">
+      <c r="M143" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N143" s="18"/>
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
+      <c r="U143" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="V143" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="11:22">
+      <c r="M144" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="T144" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="8:29">
+      <c r="U145" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V145" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="8:29">
+      <c r="U146" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC146" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="8:29">
+      <c r="U147" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="8:29">
+      <c r="L148" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="8:29">
+      <c r="L149" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="8:29">
+      <c r="M150" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="8:29">
+      <c r="M151" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="U151" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="8:29">
+      <c r="H152" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M152" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+    </row>
+    <row r="153" spans="8:29">
+      <c r="M153" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="U153" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="8:29">
+      <c r="M154" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+    </row>
+    <row r="155" spans="8:29">
+      <c r="M155" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="20"/>
+    </row>
+    <row r="156" spans="8:29">
+      <c r="M156" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+    </row>
+    <row r="157" spans="8:29">
+      <c r="M157" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+    </row>
+    <row r="158" spans="8:29">
+      <c r="M158" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="20"/>
+    </row>
+    <row r="159" spans="8:29">
+      <c r="M159" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="20"/>
+    </row>
+    <row r="160" spans="8:29">
+      <c r="M160" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="N160" s="22"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="22"/>
+      <c r="Q160" s="22"/>
+    </row>
+    <row r="162" spans="2:24">
+      <c r="M162" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24">
+      <c r="M163" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="2:24">
+      <c r="N165" s="19"/>
+    </row>
+    <row r="168" spans="2:24">
+      <c r="L168" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="2:24">
+      <c r="M169" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="2:24">
+      <c r="M170" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="2:24">
+      <c r="B171" s="24"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="26"/>
+      <c r="M171" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S171" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="2:24">
+      <c r="M172" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T172" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="2:24">
+      <c r="B173" s="27"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="29"/>
+    </row>
+    <row r="174" spans="2:24">
+      <c r="B174" s="24"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="26"/>
+      <c r="M174" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T174" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24">
+      <c r="M175" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U175" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="2:24">
+      <c r="B176" s="27"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="29"/>
+      <c r="V176" s="35"/>
+      <c r="W176" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="X176" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="13:24">
+      <c r="M177" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V177" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="W177" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="X177" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="13:24">
+      <c r="M178" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L115" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-    </row>
-    <row r="116" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K116" s="16"/>
-      <c r="L116" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
-    </row>
-    <row r="118" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K118" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K119" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="124" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K124" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="125" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L125" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L127" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="128" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="M128" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="129" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="N129" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M130" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="N131" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="132" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="N132" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="133" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="N133" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="L134" t="s">
-        <v>101</v>
-      </c>
-      <c r="N134" s="19"/>
-    </row>
-    <row r="135" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="11:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="M136" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="N137" t="s">
-        <v>104</v>
-      </c>
-      <c r="O137" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="138" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="K138" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M139" t="s">
-        <v>107</v>
-      </c>
-      <c r="T139" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M140" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N140" s="21"/>
-      <c r="O140" s="21"/>
-      <c r="P140" s="21"/>
-      <c r="U140" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="141" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M141" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="N141" s="21"/>
-      <c r="O141" s="21"/>
-      <c r="P141" s="21"/>
-      <c r="U141" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M142" s="21"/>
-      <c r="N142" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="O142" s="21"/>
-      <c r="P142" s="21"/>
-      <c r="U142" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M143" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="N143" s="21"/>
-      <c r="O143" s="21"/>
-      <c r="P143" s="21"/>
-      <c r="U143" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="V143" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="144" spans="11:22" x14ac:dyDescent="0.15">
-      <c r="M144" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="N144" s="21"/>
-      <c r="O144" s="21"/>
-      <c r="P144" s="21"/>
-      <c r="T144" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="U145" t="s">
-        <v>120</v>
-      </c>
-      <c r="V145" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="146" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="U146" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC146" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="U147" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="148" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="L148" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="149" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="L149" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="150" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M150" t="s">
-        <v>127</v>
-      </c>
-      <c r="T150" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="151" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M151" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N151" s="23"/>
-      <c r="O151" s="23"/>
-      <c r="P151" s="23"/>
-      <c r="Q151" s="23"/>
-      <c r="U151" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="H152" t="s">
-        <v>131</v>
-      </c>
-      <c r="M152" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N152" s="23"/>
-      <c r="O152" s="23"/>
-      <c r="P152" s="23"/>
-      <c r="Q152" s="23"/>
-    </row>
-    <row r="153" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M153" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="N153" s="23"/>
-      <c r="O153" s="23"/>
-      <c r="P153" s="23"/>
-      <c r="Q153" s="23"/>
-      <c r="U153" t="s">
-        <v>134</v>
-      </c>
-      <c r="V153" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="154" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M154" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N154" s="23"/>
-      <c r="O154" s="23"/>
-      <c r="P154" s="23"/>
-      <c r="Q154" s="23"/>
-    </row>
-    <row r="155" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M155" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="N155" s="23"/>
-      <c r="O155" s="23"/>
-      <c r="P155" s="23"/>
-      <c r="Q155" s="23"/>
-    </row>
-    <row r="156" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M156" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N156" s="23"/>
-      <c r="O156" s="23"/>
-      <c r="P156" s="23"/>
-      <c r="Q156" s="23"/>
-    </row>
-    <row r="157" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M157" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="N157" s="23"/>
-      <c r="O157" s="23"/>
-      <c r="P157" s="23"/>
-      <c r="Q157" s="23"/>
-    </row>
-    <row r="158" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M158" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N158" s="23"/>
-      <c r="O158" s="23"/>
-      <c r="P158" s="23"/>
-      <c r="Q158" s="23"/>
-    </row>
-    <row r="159" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M159" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N159" s="23"/>
-      <c r="O159" s="23"/>
-      <c r="P159" s="23"/>
-      <c r="Q159" s="23"/>
-    </row>
-    <row r="160" spans="8:29" x14ac:dyDescent="0.15">
-      <c r="M160" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="N160" s="25"/>
-      <c r="O160" s="25"/>
-      <c r="P160" s="25"/>
-      <c r="Q160" s="25"/>
-    </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="M162" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="M163" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N165" s="22"/>
-    </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="L168" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="M169" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="M170" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B171" s="1"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="3"/>
-      <c r="M171" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="S171" t="s">
-        <v>148</v>
-      </c>
-      <c r="T171" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="M172" t="s">
+      <c r="N178" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="T172" t="s">
+      <c r="V178" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="W178" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="X178" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="179" spans="13:24">
+      <c r="N179" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B173" s="8"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="10"/>
-    </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B174" s="1"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="3"/>
-      <c r="M174" t="s">
+    <row r="180" spans="13:24" ht="17.25">
+      <c r="N180" s="30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="M175" t="s">
+    <row r="181" spans="13:24" ht="17.25">
+      <c r="N181" s="31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B176" s="8"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="10"/>
-    </row>
-    <row r="177" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="M177" t="s">
+    <row r="182" spans="13:24">
+      <c r="N182" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="178" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="M178" t="s">
-        <v>21</v>
-      </c>
-      <c r="N178" s="7" t="s">
+    <row r="183" spans="13:24">
+      <c r="N183" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="N179" t="s">
+    <row r="184" spans="13:24">
+      <c r="N184" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="180" spans="13:21" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="N180" s="27" t="s">
+    <row r="185" spans="13:24">
+      <c r="N185" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="13:21" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="N181" s="28" t="s">
+    <row r="186" spans="13:24">
+      <c r="N186" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="182" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="N182" t="s">
+      <c r="O186" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="N183" t="s">
+    <row r="187" spans="13:24">
+      <c r="O187" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="184" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="N184" t="s">
+    <row r="188" spans="13:24">
+      <c r="O188" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="185" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="N185" t="s">
+    <row r="189" spans="13:24">
+      <c r="P189" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="186" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="N186" t="s">
+    <row r="190" spans="13:24">
+      <c r="P190" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="13:24">
+      <c r="P191" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="O186" t="s">
+      <c r="Q191" s="32"/>
+      <c r="R191" s="32"/>
+      <c r="S191" s="32"/>
+      <c r="T191" s="32"/>
+      <c r="U191" s="32"/>
+    </row>
+    <row r="192" spans="13:24">
+      <c r="Q192" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="187" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="O187" t="s">
+    <row r="193" spans="14:18">
+      <c r="R193" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="O188" t="s">
+    <row r="194" spans="14:18">
+      <c r="R194" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="P189" t="s">
+    <row r="200" spans="14:18">
+      <c r="N200" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="190" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="P190" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="191" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="P191" s="29" t="s">
+    <row r="201" spans="14:18">
+      <c r="N201" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q191" s="29"/>
-      <c r="R191" s="29"/>
-      <c r="S191" s="29"/>
-      <c r="T191" s="29"/>
-      <c r="U191" s="29"/>
-    </row>
-    <row r="192" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="Q192" t="s">
+    </row>
+    <row r="202" spans="14:18">
+      <c r="N202" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="R193" t="s">
+    <row r="213" spans="12:12">
+      <c r="L213" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="194" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="R194" t="s">
+    <row r="214" spans="12:12">
+      <c r="L214" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N200" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="201" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N201" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="202" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N202" t="s">
+    <row r="217" spans="12:12">
+      <c r="L217" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L213" t="s">
+    <row r="219" spans="12:12">
+      <c r="L219" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L214" t="s">
+    <row r="223" spans="12:12">
+      <c r="L223" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="224" spans="12:12">
+      <c r="L224" s="3" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L217" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L219" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L223" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L224" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="C52" r:id="rId2"/>
+    <hyperlink ref="C52" r:id="rId2" display="https://reactjs.org/docs/rendering-elements.html"/>
     <hyperlink ref="M47" r:id="rId3"/>
-    <hyperlink ref="C56" r:id="rId4"/>
+    <hyperlink ref="C56" r:id="rId4" display="http://webcache.googleusercontent.com/search?q=cache:Lh-BWhijCzgJ:zarari.hatenablog.com/entry/2016/04/11/212641+&amp;cd=7&amp;hl=ja&amp;ct=clnk&amp;gl=jp"/>
     <hyperlink ref="L115" r:id="rId5"/>
     <hyperlink ref="L119" r:id="rId6"/>
   </hyperlinks>
@@ -5496,198 +6164,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G50"/>
+  <dimension ref="B1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="C2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+    <row r="3" spans="2:7">
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="F10" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E8" t="s">
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="G26" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E14" t="s">
+    <row r="27" spans="6:7">
+      <c r="G27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="G31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="D34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="D38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
+    <row r="39" spans="2:11">
+      <c r="D39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="G24" t="s">
+    <row r="42" spans="2:11" ht="15" customHeight="1"/>
+    <row r="43" spans="2:11">
+      <c r="D43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="E44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="G26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="G27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="G29" t="s">
+    <row r="45" spans="2:11">
+      <c r="E45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="G31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
+    <row r="46" spans="2:11">
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="C47" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="C48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="C52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="D53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="N56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="N57" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="S57" t="s">
+        <v>221</v>
+      </c>
+      <c r="V57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="O58" t="s">
+        <v>214</v>
+      </c>
+      <c r="V58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="V59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="F61" t="s">
+        <v>239</v>
+      </c>
+      <c r="N61" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="62" spans="2:22">
+      <c r="G62" t="s">
+        <v>240</v>
+      </c>
+      <c r="N62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="F63" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="G64" t="s">
+        <v>253</v>
+      </c>
+      <c r="N64" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>207</v>
+    <row r="65" spans="8:15">
+      <c r="H65" t="s">
+        <v>254</v>
+      </c>
+      <c r="N65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="8:15">
+      <c r="I66" t="s">
+        <v>256</v>
+      </c>
+      <c r="O66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="8:15">
+      <c r="I67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="8:15">
+      <c r="I68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="8:15">
+      <c r="N69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="8:15">
+      <c r="N70" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="C47" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/react-redux-study.xlsx
+++ b/react-redux-study.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="16995" windowHeight="11145"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="16995" windowHeight="11145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
     <sheet name="redux" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="vim" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="288">
   <si>
     <t>react</t>
     <phoneticPr fontId="1"/>
@@ -209,10 +209,6 @@
     <rPh sb="44" eb="46">
       <t>ゴカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -647,19 +643,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>conponentの中でconnect関数をつかうところが、railsでいうコントローラ的なところ</t>
-    <rPh sb="10" eb="11">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1338,88 +1321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>は基本的には、Compornentのattributeとして定義して、Compornentの中ではthis.props.xxxとして参照する。</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>は外部から渡された値で、そのCompornentが管理している値ではないので、変更してはいけない。</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;= ???</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2225,10 +2126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>v components/status_action_bar.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューへの項目追加</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2342,35 +2239,6 @@
     <rPh sb="24" eb="25">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> &lt;StatusActionBar</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> status={status} account={account} {...other}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /&gt;</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2406,21 +2274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これが　props</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この場合accountがそれ？</t>
-    <rPh sb="2" eb="4">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>formatMessageもなにかよくわからない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>snippet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2523,6 +2376,305 @@
     <t>luaが使えること。。</t>
     <rPh sb="4" eb="5">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enzymeについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v components/status_action_bar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129 formatMessageもなにかよくわからない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/koba04/items/9df76ac0744edd8f8e0e</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は基本的には、Compornentのattributeとして定義して、Compornentの中ではthis.props.xxxとして参照する。</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は外部から渡された値で、そのCompornentが管理している値ではないので、変更してはいけない。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親の139で let { status, account, ...other } = this.props …</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに上流に…</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖父(container/status_container.js)の最終行でexport default injectIntl(connect(makeMapStateToProps, mapDispatchToProps)(Status));</t>
+    <rPh sb="0" eb="2">
+      <t>ソフ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>サイシュウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>componentの中でconnect関数をつかうところが、railsでいうコントローラ的なところ</t>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;StatusActionBar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> status={status} account={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} {...other}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶色が　props</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのうちaccountについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">親の241で&lt;DisplayName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.get('account')} /&gt;</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このstatusはただの変数。 Stateとは別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このどこにpropsがまざっているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapStateToProps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapDispatchToProps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に入っている。　ので見ていく</t>
+    <rPh sb="1" eb="2">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {status: getStatus(state, props.id)}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getstatusの先でrailsに見に行ってる。</t>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2531,7 +2683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2725,6 +2877,31 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2897,7 +3074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3022,6 +3199,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4192,11 +4375,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M203" sqref="M203"/>
+    <sheetView topLeftCell="D116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q132" sqref="Q132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="60.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="4" customWidth="1"/>
@@ -4217,7 +4400,7 @@
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:29" s="4" customFormat="1">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4430,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4277,7 +4460,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4307,7 +4490,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4337,7 +4520,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4550,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4397,7 +4580,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4427,7 +4610,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -4457,7 +4640,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -4487,7 +4670,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -4517,7 +4700,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4547,7 +4730,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -4577,9 +4760,9 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -4607,7 +4790,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" ht="54">
+    <row r="21" spans="1:29" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
@@ -4637,7 +4820,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" s="6" customFormat="1">
+    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4667,7 +4850,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="24" spans="1:29" s="6" customFormat="1">
+    <row r="24" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -4697,7 +4880,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="27" spans="1:29" s="6" customFormat="1">
+    <row r="27" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -4727,7 +4910,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="30" spans="1:29" s="6" customFormat="1">
+    <row r="30" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -4757,7 +4940,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" s="6" customFormat="1">
+    <row r="31" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -4787,7 +4970,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" s="6" customFormat="1">
+    <row r="32" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -4817,7 +5000,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" s="6" customFormat="1">
+    <row r="33" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -4847,7 +5030,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="39" spans="1:29" s="6" customFormat="1">
+    <row r="39" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
@@ -4879,13 +5062,13 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" s="6" customFormat="1">
+    <row r="40" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
@@ -4911,7 +5094,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -4919,160 +5102,160 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M46" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="M47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:29">
-      <c r="M47" s="10" t="s">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:29" ht="14.25" thickBot="1">
-      <c r="A48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="M48" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C49" s="11" t="s">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="C53" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C56" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="3" t="s">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
-      <c r="A67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L67" s="3" t="s">
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:29">
-      <c r="A68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="69" spans="1:29">
-      <c r="A69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L69" s="3" t="s">
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="L70" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
-      <c r="L70" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" s="6" customFormat="1">
-      <c r="A73" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -5100,9 +5283,9 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" s="6" customFormat="1">
+    <row r="74" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -5130,9 +5313,9 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" s="6" customFormat="1">
+    <row r="75" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -5160,9 +5343,9 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" s="6" customFormat="1">
+    <row r="76" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -5190,9 +5373,9 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" s="6" customFormat="1">
+    <row r="77" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -5220,9 +5403,9 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" s="6" customFormat="1">
+    <row r="78" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -5250,9 +5433,9 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="80" spans="1:29" s="6" customFormat="1">
+    <row r="80" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -5280,9 +5463,9 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" s="6" customFormat="1">
+    <row r="81" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -5310,9 +5493,9 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="83" spans="1:29" s="6" customFormat="1">
+    <row r="83" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -5340,9 +5523,9 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" s="6" customFormat="1">
+    <row r="84" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -5370,9 +5553,9 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" s="6" customFormat="1">
+    <row r="85" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -5400,11 +5583,11 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="87" spans="1:29" s="6" customFormat="1">
+    <row r="87" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
@@ -5430,10 +5613,10 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" s="6" customFormat="1">
+    <row r="88" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C88" s="5"/>
       <c r="E88" s="4"/>
@@ -5460,95 +5643,95 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.15">
       <c r="K89" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="K90" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
-      <c r="K90" s="3" t="s">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="L91" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
-      <c r="L91" s="3" t="s">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="L92" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
-      <c r="L92" s="3" t="s">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="K94" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
-      <c r="K94" s="3" t="s">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="L95" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
-      <c r="L95" s="3" t="s">
+    <row r="102" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="K102" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="11:18">
-      <c r="K102" s="3" t="s">
+    <row r="103" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="L103" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="11:18">
-      <c r="L103" s="3" t="s">
+    <row r="104" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="M104" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="11:18">
-      <c r="M104" s="3" t="s">
+    <row r="105" spans="11:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M105" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="105" spans="11:18" ht="53.25" customHeight="1">
-      <c r="M105" s="3" t="s">
+      <c r="N105" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N105" s="8" t="s">
+      <c r="O105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O105" s="3" t="s">
+    </row>
+    <row r="106" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="P106" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="11:18">
-      <c r="P106" s="3" t="s">
+    <row r="107" spans="11:18" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Q107" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="11:18" ht="17.25">
-      <c r="Q107" s="3" t="s">
+    <row r="108" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="Q108" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="11:18">
-      <c r="Q108" s="3" t="s">
+    <row r="109" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="R109" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="11:18">
-      <c r="R109" s="3" t="s">
+    <row r="110" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="R110" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="11:18">
-      <c r="R110" s="3" t="s">
+    <row r="111" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="Q111" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="11:18">
-      <c r="Q111" s="3" t="s">
+    <row r="114" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K114" s="13" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="11:16">
-      <c r="K114" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
@@ -5556,351 +5739,351 @@
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
     </row>
-    <row r="115" spans="11:16">
+    <row r="115" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K115" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
       <c r="P115" s="13"/>
     </row>
-    <row r="116" spans="11:16">
+    <row r="116" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K116" s="13"/>
       <c r="L116" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
       <c r="P116" s="13"/>
     </row>
-    <row r="118" spans="11:16">
+    <row r="118" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K118" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="11:16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K119" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L119" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K124" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="11:16">
-      <c r="K124" s="3" t="s">
+    <row r="125" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L125" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L127" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="11:16">
-      <c r="L125" s="3" t="s">
+    <row r="128" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="M128" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="11:16">
-      <c r="L127" s="3" t="s">
+    <row r="129" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="N129" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="11:16">
-      <c r="M128" s="16" t="s">
+    <row r="130" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="M130" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="11:22">
-      <c r="N129" s="3" t="s">
+    <row r="131" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="N131" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="11:22">
-      <c r="M130" s="16" t="s">
+    <row r="132" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="N132" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="11:22">
-      <c r="N131" s="3" t="s">
+    <row r="133" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="N133" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="11:22">
-      <c r="N132" s="3" t="s">
+    <row r="134" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="L134" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="133" spans="11:22">
-      <c r="N133" s="16" t="s">
+      <c r="N134" s="16"/>
+    </row>
+    <row r="135" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="M135" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="11:22">
-      <c r="L134" s="3" t="s">
+    <row r="136" spans="11:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="M136" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N134" s="16"/>
-    </row>
-    <row r="135" spans="11:22">
-      <c r="M135" s="3" t="s">
+    </row>
+    <row r="137" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="N137" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="136" spans="11:22" ht="15">
-      <c r="M136" s="17" t="s">
+      <c r="O137" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="11:22">
-      <c r="N137" s="3" t="s">
+    <row r="138" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="K138" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O137" s="3" t="s">
+    </row>
+    <row r="139" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="M139" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="138" spans="11:22">
-      <c r="K138" s="3" t="s">
+      <c r="T139" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="11:22">
-      <c r="M139" s="3" t="s">
+    <row r="140" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="M140" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="T139" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="140" spans="11:22">
-      <c r="M140" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="N140" s="18"/>
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
       <c r="U140" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="11:22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="11:22" x14ac:dyDescent="0.15">
       <c r="M141" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N141" s="18"/>
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
       <c r="U141" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="11:22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="11:22" x14ac:dyDescent="0.15">
       <c r="M142" s="18"/>
       <c r="N142" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O142" s="18"/>
       <c r="P142" s="18"/>
       <c r="U142" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="11:22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="11:22" x14ac:dyDescent="0.15">
       <c r="M143" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
       <c r="U143" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="V143" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="11:22" x14ac:dyDescent="0.15">
+      <c r="M144" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="V143" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="11:22">
-      <c r="M144" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
       <c r="T144" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="U145" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V145" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="8:29">
-      <c r="U145" s="3" t="s">
+    <row r="146" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="U146" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V145" s="3" t="s">
+      <c r="AC146" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="8:29">
-      <c r="U146" s="3" t="s">
+    <row r="147" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="U147" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AC146" s="3" t="s">
+    </row>
+    <row r="148" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="L148" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="8:29">
-      <c r="U147" s="3" t="s">
+    <row r="149" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="L149" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="8:29">
-      <c r="L148" s="3" t="s">
+    <row r="150" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="M150" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="149" spans="8:29">
-      <c r="L149" s="3" t="s">
+      <c r="T150" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="8:29">
-      <c r="M150" s="3" t="s">
+    <row r="151" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="M151" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="T150" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="151" spans="8:29">
-      <c r="M151" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="N151" s="20"/>
       <c r="O151" s="20"/>
       <c r="P151" s="20"/>
       <c r="Q151" s="20"/>
       <c r="U151" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="H152" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M152" s="20" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="8:29">
-      <c r="H152" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M152" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="N152" s="20"/>
       <c r="O152" s="20"/>
       <c r="P152" s="20"/>
       <c r="Q152" s="20"/>
     </row>
-    <row r="153" spans="8:29">
+    <row r="153" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M153" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N153" s="20"/>
       <c r="O153" s="20"/>
       <c r="P153" s="20"/>
       <c r="Q153" s="20"/>
       <c r="U153" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="8:29" x14ac:dyDescent="0.15">
+      <c r="M154" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="V153" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="8:29">
-      <c r="M154" s="20" t="s">
-        <v>131</v>
       </c>
       <c r="N154" s="20"/>
       <c r="O154" s="20"/>
       <c r="P154" s="20"/>
       <c r="Q154" s="20"/>
     </row>
-    <row r="155" spans="8:29">
+    <row r="155" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M155" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N155" s="20"/>
       <c r="O155" s="20"/>
       <c r="P155" s="20"/>
       <c r="Q155" s="20"/>
     </row>
-    <row r="156" spans="8:29">
+    <row r="156" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M156" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N156" s="20"/>
       <c r="O156" s="20"/>
       <c r="P156" s="20"/>
       <c r="Q156" s="20"/>
     </row>
-    <row r="157" spans="8:29">
+    <row r="157" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M157" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N157" s="20"/>
       <c r="O157" s="20"/>
       <c r="P157" s="20"/>
       <c r="Q157" s="20"/>
     </row>
-    <row r="158" spans="8:29">
+    <row r="158" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M158" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N158" s="20"/>
       <c r="O158" s="20"/>
       <c r="P158" s="20"/>
       <c r="Q158" s="20"/>
     </row>
-    <row r="159" spans="8:29">
+    <row r="159" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M159" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N159" s="20"/>
       <c r="O159" s="20"/>
       <c r="P159" s="20"/>
       <c r="Q159" s="20"/>
     </row>
-    <row r="160" spans="8:29">
+    <row r="160" spans="8:29" x14ac:dyDescent="0.15">
       <c r="M160" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N160" s="22"/>
       <c r="O160" s="22"/>
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
     </row>
-    <row r="162" spans="2:24">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.15">
       <c r="M162" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="M163" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="N165" s="19"/>
+    </row>
+    <row r="168" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="L168" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="163" spans="2:24">
-      <c r="M163" s="3" t="s">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="M169" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="2:24">
-      <c r="N165" s="19"/>
-    </row>
-    <row r="168" spans="2:24">
-      <c r="L168" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="169" spans="2:24">
-      <c r="M169" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="170" spans="2:24">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.15">
       <c r="M170" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="171" spans="2:24">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B171" s="24"/>
       <c r="C171" s="25"/>
       <c r="D171" s="26"/>
@@ -5911,24 +6094,24 @@
       <c r="I171" s="25"/>
       <c r="J171" s="26"/>
       <c r="M171" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="S171" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="M172" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T172" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="S171" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T171" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="172" spans="2:24">
-      <c r="M172" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="T172" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="173" spans="2:24">
+    </row>
+    <row r="173" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B173" s="27"/>
       <c r="C173" s="28"/>
       <c r="D173" s="29"/>
@@ -5939,7 +6122,7 @@
       <c r="I173" s="28"/>
       <c r="J173" s="29"/>
     </row>
-    <row r="174" spans="2:24">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B174" s="24"/>
       <c r="C174" s="25"/>
       <c r="D174" s="26"/>
@@ -5950,21 +6133,21 @@
       <c r="I174" s="25"/>
       <c r="J174" s="26"/>
       <c r="M174" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="T174" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="175" spans="2:24">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24" x14ac:dyDescent="0.15">
       <c r="M175" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U175" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="176" spans="2:24">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B176" s="27"/>
       <c r="C176" s="28"/>
       <c r="D176" s="29"/>
@@ -5976,109 +6159,109 @@
       <c r="J176" s="29"/>
       <c r="V176" s="35"/>
       <c r="W176" s="35" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="X176" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="177" spans="13:24">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="13:24" x14ac:dyDescent="0.15">
       <c r="M177" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="V177" s="34" t="s">
-        <v>247</v>
+        <v>145</v>
+      </c>
+      <c r="V177" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="W177" s="34" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="X177" s="34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="178" spans="13:24">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="13:24" x14ac:dyDescent="0.15">
       <c r="M178" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N178" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V178" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="W178" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="X178" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="N179" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="13:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N180" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="13:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N181" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="N182" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V178" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="W178" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="X178" s="34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="179" spans="13:24">
-      <c r="N179" s="3" t="s">
+    </row>
+    <row r="183" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="N183" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="180" spans="13:24" ht="17.25">
-      <c r="N180" s="30" t="s">
+    <row r="184" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="N184" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="13:24" ht="17.25">
-      <c r="N181" s="31" t="s">
+    <row r="185" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="N185" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="182" spans="13:24">
-      <c r="N182" s="3" t="s">
+    <row r="186" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="N186" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="183" spans="13:24">
-      <c r="N183" s="3" t="s">
+      <c r="O186" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="184" spans="13:24">
-      <c r="N184" s="3" t="s">
+    <row r="187" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="O187" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="13:24">
-      <c r="N185" s="3" t="s">
+    <row r="188" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="O188" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="13:24">
-      <c r="N186" s="3" t="s">
+    <row r="189" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="P189" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O186" s="3" t="s">
+    </row>
+    <row r="190" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="P190" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="P191" s="32" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="187" spans="13:24">
-      <c r="O187" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="188" spans="13:24">
-      <c r="O188" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="189" spans="13:24">
-      <c r="P189" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="190" spans="13:24">
-      <c r="P190" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="191" spans="13:24">
-      <c r="P191" s="32" t="s">
-        <v>163</v>
       </c>
       <c r="Q191" s="32"/>
       <c r="R191" s="32"/>
@@ -6086,64 +6269,64 @@
       <c r="T191" s="32"/>
       <c r="U191" s="32"/>
     </row>
-    <row r="192" spans="13:24">
+    <row r="192" spans="13:24" x14ac:dyDescent="0.15">
       <c r="Q192" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="14:18" x14ac:dyDescent="0.15">
+      <c r="R193" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="14:18" x14ac:dyDescent="0.15">
+      <c r="R194" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="200" spans="14:18" x14ac:dyDescent="0.15">
+      <c r="N200" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="14:18" x14ac:dyDescent="0.15">
+      <c r="N201" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="193" spans="14:18">
-      <c r="R193" s="3" t="s">
+    <row r="202" spans="14:18" x14ac:dyDescent="0.15">
+      <c r="N202" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="14:18">
-      <c r="R194" s="3" t="s">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L213" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="14:18">
-      <c r="N200" s="3" t="s">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L214" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="14:18">
-      <c r="N201" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="202" spans="14:18">
-      <c r="N202" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="213" spans="12:12">
-      <c r="L213" s="3" t="s">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L217" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="214" spans="12:12">
-      <c r="L214" s="3" t="s">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L219" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="12:12">
-      <c r="L217" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="219" spans="12:12">
-      <c r="L219" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="223" spans="12:12">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L223" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="224" spans="12:12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L224" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6164,189 +6347,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V70"/>
+  <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81:M82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="13" max="13" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="E8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F10" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="E12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="E14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="G24" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
-      <c r="G26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7">
-      <c r="G27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="G29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7">
-      <c r="G31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="D34" t="s">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E44" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
-      <c r="C37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="D38" t="s">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
-      <c r="D39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15" customHeight="1"/>
-    <row r="43" spans="2:11">
-      <c r="D43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="E44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="E45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C47" s="37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
@@ -6357,143 +6540,209 @@
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="N56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="N57" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="S57" t="s">
+        <v>217</v>
+      </c>
+      <c r="V57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O58" t="s">
+        <v>210</v>
+      </c>
+      <c r="V58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="V59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="F61" t="s">
+        <v>234</v>
+      </c>
+      <c r="N61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G62" t="s">
+        <v>235</v>
+      </c>
+      <c r="N62" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="2:22">
-      <c r="B51" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22">
-      <c r="C52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22">
-      <c r="D53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22">
-      <c r="C55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22">
-      <c r="C56" t="s">
-        <v>233</v>
-      </c>
-      <c r="N56" t="s">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="F63" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="N63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G64" t="s">
+        <v>248</v>
+      </c>
+      <c r="N64" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="2:22">
-      <c r="N57" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="S57" t="s">
-        <v>221</v>
-      </c>
-      <c r="V57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22">
-      <c r="C58" t="s">
-        <v>235</v>
-      </c>
-      <c r="O58" t="s">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H65" t="s">
+        <v>277</v>
+      </c>
+      <c r="N65" t="s">
         <v>214</v>
       </c>
-      <c r="V58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22">
-      <c r="C59" t="s">
+    </row>
+    <row r="66" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I66" t="s">
+        <v>278</v>
+      </c>
+      <c r="O66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I69" t="s">
+        <v>281</v>
+      </c>
+      <c r="N69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="N70" t="s">
         <v>236</v>
       </c>
-      <c r="V59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22">
-      <c r="D60" t="s">
-        <v>237</v>
-      </c>
-      <c r="E60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22">
-      <c r="F61" t="s">
-        <v>239</v>
-      </c>
-      <c r="N61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22">
-      <c r="G62" t="s">
-        <v>240</v>
-      </c>
-      <c r="N62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22">
-      <c r="F63" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="N63" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22">
-      <c r="G64" t="s">
-        <v>253</v>
-      </c>
-      <c r="N64" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="8:15">
-      <c r="H65" t="s">
-        <v>254</v>
-      </c>
-      <c r="N65" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="8:15">
-      <c r="I66" t="s">
-        <v>256</v>
-      </c>
-      <c r="O66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="8:15">
-      <c r="I67" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="8:15">
-      <c r="I68" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="8:15">
-      <c r="N69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="8:15">
-      <c r="N70" t="s">
-        <v>241</v>
+    </row>
+    <row r="71" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="J72" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="J75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="J76" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="J77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="J78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="K79" t="s">
+        <v>283</v>
+      </c>
+      <c r="M79" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="K80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N87" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6512,85 +6761,85 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="39" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
+      <c r="D18" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
